--- a/Modelling/15.16 Run Log.xlsx
+++ b/Modelling/15.16 Run Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Pike</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>0.026 everywhere</t>
+  </si>
+  <si>
+    <t>still too low morgan, but too high DS L2, split WP</t>
+  </si>
+  <si>
+    <t>Worse. Try higher just to test</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>guess for 15.16 data</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>0.03 Morgan 0.027 L2</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +451,7 @@
     <col min="6" max="6" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -526,12 +545,18 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -545,12 +570,18 @@
       <c r="K5" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -558,7 +589,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
